--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1912.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1912.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.571425156895305</v>
+        <v>1.566583633422852</v>
       </c>
       <c r="B1">
-        <v>3.298866674432947</v>
+        <v>1.671361207962036</v>
       </c>
       <c r="C1">
-        <v>2.414054953106293</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.215712025094532</v>
+        <v>1.63399076461792</v>
       </c>
       <c r="E1">
-        <v>1.947858202655675</v>
+        <v>0.7264934778213501</v>
       </c>
     </row>
   </sheetData>
